--- a/HW4/活頁簿1.xlsx
+++ b/HW4/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B6221-C7C8-A748-84A9-F577C43149CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B704B-09BB-D74F-8443-8EECBF548963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{E028C1E8-A44B-9844-8949-88ED50FB2DE1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
   <si>
     <t>)</t>
   </si>
@@ -57,26 +57,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>valid loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kaggle:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>train acc:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>train loss:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid acc:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d_model=80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +73,309 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>medium:0.70375</t>
+    <t>nhead=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss: 0.85750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium: 0.70375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple: 0.60824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.6857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc: 0.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.60850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.6716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.6785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc: 0.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self.encoder_layer = ConformerBlock(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                dim = d_model,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                dim_head = 64,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                heads = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                ff_mult = 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                conv_expansion_factor = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                conv_kernel_size = 31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                attn_dropout = dropout,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                ff_dropout = 0.,</t>
+  </si>
+  <si>
+    <t>d_model=80</t>
+  </si>
+  <si>
+    <t>total_steps: 200000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.7795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.61800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_steps: 400000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc: 0.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.65475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed: 328487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.69400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.7899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_steps: 500000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">train acc: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_steps: 600000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.70300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.7927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kaggle: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">valid acc: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_steps: 700000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_layers=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder(num_layers=10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhead大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d＿model大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.69600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder(num_layers=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_steps: 1000000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhead=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder(num_layers=25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder(num_layers=15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhead=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.7917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.69900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.66500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.66900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder(num_layers=2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_steps: 1500000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:  0.64149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc: 0.8475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.67675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_model=130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout=0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,114 +743,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236390CB-A423-684F-B208-580C6ED895E4}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:CJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:88">
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="R1">
+        <v>4</v>
+      </c>
+      <c r="W1">
+        <v>5</v>
+      </c>
+      <c r="AB1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AL1">
+        <v>8</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1">
+        <v>9</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV1">
+        <v>10</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA1">
+        <v>11</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF1">
+        <v>12</v>
+      </c>
+      <c r="BK1">
+        <v>13</v>
+      </c>
+      <c r="BP1">
+        <v>14</v>
+      </c>
+      <c r="BU1">
+        <v>15</v>
+      </c>
+      <c r="BZ1">
+        <v>16</v>
+      </c>
+      <c r="CE1">
+        <v>17</v>
+      </c>
+      <c r="CJ1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:88">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:88">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:88">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:88">
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:88">
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>59</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:88">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:88">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="AD10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:88">
       <c r="E11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:88">
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:88">
       <c r="E13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:88">
       <c r="E14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:88">
       <c r="E15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:88">
       <c r="E16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:85">
       <c r="E17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:85">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:85">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85">
+      <c r="A30" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>